--- a/src/output/opt/W/data.xlsx
+++ b/src/output/opt/W/data.xlsx
@@ -64,7 +64,7 @@
     <col min="3" max="3" width="2" customWidth="true"/>
     <col min="4" max="4" width="3.5546875" customWidth="true"/>
     <col min="5" max="5" width="3" customWidth="true"/>
-    <col min="6" max="6" width="4" customWidth="true"/>
+    <col min="6" max="6" width="5" customWidth="true"/>
     <col min="7" max="7" width="4.5546875" customWidth="true"/>
     <col min="8" max="8" width="3" customWidth="true"/>
     <col min="9" max="9" width="4" customWidth="true"/>
@@ -77,7 +77,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.10000000000000001</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0">
         <v>1000</v>
@@ -92,31 +92,31 @@
         <v>10</v>
       </c>
       <c r="F1" s="0">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1" s="0">
-        <v>0.94999999999999996</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H1" s="0">
         <v>10</v>
       </c>
       <c r="I1" s="0">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="J1" s="0">
-        <v>12.379420100000001</v>
+        <v>204.37491900000001</v>
       </c>
       <c r="K1" s="0">
-        <v>3.0533624952866489e-06</v>
+        <v>0.00060749954121108729</v>
       </c>
       <c r="L1" s="0">
-        <v>2.1982035262093052e-07</v>
+        <v>1.7457674885589531e-05</v>
       </c>
       <c r="M1" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1" s="0">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
